--- a/IBT Liability Returns & PV.xlsx
+++ b/IBT Liability Returns & PV.xlsx
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Present Values</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -384,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1523,14 +1520,6 @@
         <v>-0.02259384490101424</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>-0.6821896196614217</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1538,7 +1527,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B144"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2685,14 +2674,6 @@
         <v>15446071532.90326</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B144">
-        <v>4908921868.608872</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
